--- a/bin/conf/level.xlsx
+++ b/bin/conf/level.xlsx
@@ -575,7 +575,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -769,7 +769,7 @@
         <v>70</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -792,7 +792,7 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -815,7 +815,7 @@
         <v>150</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -838,7 +838,7 @@
         <v>200</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -861,7 +861,7 @@
         <v>300</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -881,10 +881,10 @@
         <v>250</v>
       </c>
       <c r="F13">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -898,16 +898,16 @@
         <v>20000</v>
       </c>
       <c r="D14">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>300</v>
       </c>
       <c r="F14">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -921,16 +921,16 @@
         <v>50000</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>300</v>
       </c>
       <c r="F15">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G15">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -944,16 +944,16 @@
         <v>60000</v>
       </c>
       <c r="D16">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>300</v>
       </c>
       <c r="F16">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -967,16 +967,16 @@
         <v>100000</v>
       </c>
       <c r="D17">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>300</v>
       </c>
       <c r="F17">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="G17">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -990,16 +990,16 @@
         <v>150000</v>
       </c>
       <c r="D18">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <v>300</v>
       </c>
       <c r="F18">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="G18">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1013,16 +1013,16 @@
         <v>200000</v>
       </c>
       <c r="D19">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="E19">
         <v>300</v>
       </c>
       <c r="F19">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="G19">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1036,16 +1036,16 @@
         <v>300000</v>
       </c>
       <c r="D20">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="E20">
         <v>300</v>
       </c>
       <c r="F20">
-        <v>3800</v>
+        <v>1100</v>
       </c>
       <c r="G20">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1059,16 +1059,16 @@
         <v>500000</v>
       </c>
       <c r="D21">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E21">
         <v>300</v>
       </c>
       <c r="F21">
-        <v>4200</v>
+        <v>1200</v>
       </c>
       <c r="G21">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1082,16 +1082,16 @@
         <v>500000</v>
       </c>
       <c r="D22">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="E22">
         <v>300</v>
       </c>
       <c r="F22">
-        <v>4600</v>
+        <v>1300</v>
       </c>
       <c r="G22">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1105,16 +1105,16 @@
         <v>500000</v>
       </c>
       <c r="D23">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>300</v>
       </c>
       <c r="F23">
-        <v>5000</v>
+        <v>1400</v>
       </c>
       <c r="G23">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1128,16 +1128,16 @@
         <v>500000</v>
       </c>
       <c r="D24">
-        <v>360</v>
+        <v>105</v>
       </c>
       <c r="E24">
         <v>300</v>
       </c>
       <c r="F24">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="G24">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1151,16 +1151,16 @@
         <v>500000</v>
       </c>
       <c r="D25">
-        <v>390</v>
+        <v>110</v>
       </c>
       <c r="E25">
         <v>300</v>
       </c>
       <c r="F25">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="G25">
-        <v>95</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/level.xlsx
+++ b/bin/conf/level.xlsx
@@ -575,7 +575,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -619,7 +619,7 @@
         <v>200</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -642,7 +642,7 @@
         <v>300</v>
       </c>
       <c r="C3">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -665,7 +665,7 @@
         <v>400</v>
       </c>
       <c r="C4">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D4">
         <v>21</v>
@@ -688,7 +688,7 @@
         <v>600</v>
       </c>
       <c r="C5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D5">
         <v>24</v>
@@ -711,7 +711,7 @@
         <v>800</v>
       </c>
       <c r="C6">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D6">
         <v>27</v>
@@ -734,7 +734,7 @@
         <v>1200</v>
       </c>
       <c r="C7">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -754,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="C8">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D8">
         <v>33</v>
@@ -777,10 +777,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="C9">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D9">
         <v>36</v>
@@ -800,10 +800,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="C10">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D10">
         <v>39</v>
@@ -823,10 +823,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="C11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D11">
         <v>42</v>
@@ -846,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="C12">
         <v>20000</v>
@@ -869,10 +869,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="C13">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D13">
         <v>50</v>
@@ -892,10 +892,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="C14">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D14">
         <v>55</v>
@@ -915,10 +915,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="C15">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D15">
         <v>60</v>
@@ -938,10 +938,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="C16">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="D16">
         <v>65</v>
@@ -961,10 +961,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>240000</v>
+        <v>40000</v>
       </c>
       <c r="C17">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="D17">
         <v>70</v>
@@ -984,10 +984,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>480000</v>
+        <v>80000</v>
       </c>
       <c r="C18">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="D18">
         <v>75</v>
@@ -1007,10 +1007,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1000000</v>
+        <v>160000</v>
       </c>
       <c r="C19">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="D19">
         <v>80</v>
@@ -1030,10 +1030,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3000000</v>
+        <v>320000</v>
       </c>
       <c r="C20">
-        <v>300000</v>
+        <v>40000</v>
       </c>
       <c r="D20">
         <v>85</v>
@@ -1053,10 +1053,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>5000000</v>
+        <v>640000</v>
       </c>
       <c r="C21">
-        <v>500000</v>
+        <v>40000</v>
       </c>
       <c r="D21">
         <v>90</v>
@@ -1076,10 +1076,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7000000</v>
+        <v>1280000</v>
       </c>
       <c r="C22">
-        <v>500000</v>
+        <v>40000</v>
       </c>
       <c r="D22">
         <v>95</v>
@@ -1099,10 +1099,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9000000</v>
+        <v>2560000</v>
       </c>
       <c r="C23">
-        <v>500000</v>
+        <v>40000</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -1122,10 +1122,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>11000000</v>
+        <v>5120000</v>
       </c>
       <c r="C24">
-        <v>500000</v>
+        <v>40000</v>
       </c>
       <c r="D24">
         <v>105</v>
@@ -1145,10 +1145,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>13000000</v>
+        <v>10240000</v>
       </c>
       <c r="C25">
-        <v>500000</v>
+        <v>40000</v>
       </c>
       <c r="D25">
         <v>110</v>

--- a/bin/conf/level.xlsx
+++ b/bin/conf/level.xlsx
@@ -575,7 +575,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -622,7 +622,7 @@
         <v>20000</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -645,7 +645,7 @@
         <v>20000</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -668,7 +668,7 @@
         <v>20000</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -691,7 +691,7 @@
         <v>20000</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -714,7 +714,7 @@
         <v>20000</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -737,7 +737,7 @@
         <v>20000</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -746,7 +746,7 @@
         <v>60</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -760,7 +760,7 @@
         <v>20000</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -783,7 +783,7 @@
         <v>20000</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>70</v>
@@ -806,7 +806,7 @@
         <v>20000</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -829,7 +829,7 @@
         <v>20000</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>150</v>
@@ -852,7 +852,7 @@
         <v>20000</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>200</v>
@@ -861,7 +861,7 @@
         <v>300</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -875,7 +875,7 @@
         <v>40000</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>250</v>
@@ -884,7 +884,7 @@
         <v>400</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -898,7 +898,7 @@
         <v>40000</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>300</v>
@@ -907,7 +907,7 @@
         <v>500</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -921,7 +921,7 @@
         <v>40000</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>300</v>
@@ -930,7 +930,7 @@
         <v>600</v>
       </c>
       <c r="G15">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -944,7 +944,7 @@
         <v>40000</v>
       </c>
       <c r="D16">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>300</v>
@@ -953,7 +953,7 @@
         <v>700</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -967,7 +967,7 @@
         <v>40000</v>
       </c>
       <c r="D17">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>300</v>
@@ -976,7 +976,7 @@
         <v>800</v>
       </c>
       <c r="G17">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -990,7 +990,7 @@
         <v>40000</v>
       </c>
       <c r="D18">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>300</v>
@@ -999,7 +999,7 @@
         <v>900</v>
       </c>
       <c r="G18">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1013,7 +1013,7 @@
         <v>40000</v>
       </c>
       <c r="D19">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>300</v>
@@ -1022,7 +1022,7 @@
         <v>1000</v>
       </c>
       <c r="G19">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1036,7 +1036,7 @@
         <v>40000</v>
       </c>
       <c r="D20">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>300</v>
@@ -1045,7 +1045,7 @@
         <v>1100</v>
       </c>
       <c r="G20">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1059,7 +1059,7 @@
         <v>40000</v>
       </c>
       <c r="D21">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E21">
         <v>300</v>
@@ -1068,7 +1068,7 @@
         <v>1200</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1082,7 +1082,7 @@
         <v>40000</v>
       </c>
       <c r="D22">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>300</v>
@@ -1091,7 +1091,7 @@
         <v>1300</v>
       </c>
       <c r="G22">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1105,7 +1105,7 @@
         <v>40000</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>300</v>
@@ -1114,7 +1114,7 @@
         <v>1400</v>
       </c>
       <c r="G23">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1128,7 +1128,7 @@
         <v>40000</v>
       </c>
       <c r="D24">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="E24">
         <v>300</v>
@@ -1137,7 +1137,7 @@
         <v>1500</v>
       </c>
       <c r="G24">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1151,7 +1151,7 @@
         <v>40000</v>
       </c>
       <c r="D25">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>300</v>
@@ -1160,7 +1160,7 @@
         <v>1600</v>
       </c>
       <c r="G25">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/level.xlsx
+++ b/bin/conf/level.xlsx
@@ -572,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,7 +734,7 @@
         <v>1200</v>
       </c>
       <c r="C7">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -754,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="C8">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="D8">
         <v>17</v>
@@ -777,10 +777,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C9">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="D9">
         <v>19</v>
@@ -800,10 +800,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="C10">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -823,10 +823,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="C11">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="D11">
         <v>23</v>
@@ -846,10 +846,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="C12">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="D12">
         <v>25</v>
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="C13">
         <v>40000</v>
@@ -892,7 +892,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="C14">
         <v>40000</v>
@@ -915,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="C15">
         <v>40000</v>
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="C16">
         <v>40000</v>
@@ -961,7 +961,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="C17">
         <v>40000</v>
@@ -984,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="C18">
         <v>40000</v>
@@ -1007,7 +1007,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="C19">
         <v>40000</v>
@@ -1030,7 +1030,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>320000</v>
+        <v>90000</v>
       </c>
       <c r="C20">
         <v>40000</v>
@@ -1053,10 +1053,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>640000</v>
+        <v>100000</v>
       </c>
       <c r="C21">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="D21">
         <v>51</v>
@@ -1076,10 +1076,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1280000</v>
+        <v>110000</v>
       </c>
       <c r="C22">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="D22">
         <v>54</v>
@@ -1099,10 +1099,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2560000</v>
+        <v>120000</v>
       </c>
       <c r="C23">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="D23">
         <v>57</v>
@@ -1122,10 +1122,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>5120000</v>
+        <v>130000</v>
       </c>
       <c r="C24">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="D24">
         <v>60</v>
@@ -1145,10 +1145,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>10240000</v>
+        <v>140000</v>
       </c>
       <c r="C25">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="D25">
         <v>63</v>
@@ -1161,6 +1161,144 @@
       </c>
       <c r="G25">
         <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>150000</v>
+      </c>
+      <c r="C26">
+        <v>50000</v>
+      </c>
+      <c r="D26">
+        <v>66</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="F26">
+        <v>1700</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>160000</v>
+      </c>
+      <c r="C27">
+        <v>50000</v>
+      </c>
+      <c r="D27">
+        <v>69</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27">
+        <v>1800</v>
+      </c>
+      <c r="G27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>170000</v>
+      </c>
+      <c r="C28">
+        <v>50000</v>
+      </c>
+      <c r="D28">
+        <v>72</v>
+      </c>
+      <c r="E28">
+        <v>300</v>
+      </c>
+      <c r="F28">
+        <v>1900</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>180000</v>
+      </c>
+      <c r="C29">
+        <v>50000</v>
+      </c>
+      <c r="D29">
+        <v>75</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+      <c r="F29">
+        <v>2000</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>190000</v>
+      </c>
+      <c r="C30">
+        <v>50000</v>
+      </c>
+      <c r="D30">
+        <v>78</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30">
+        <v>2100</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>200000</v>
+      </c>
+      <c r="C31">
+        <v>50000</v>
+      </c>
+      <c r="D31">
+        <v>81</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31">
+        <v>2200</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/level.xlsx
+++ b/bin/conf/level.xlsx
@@ -575,7 +575,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -619,7 +619,7 @@
         <v>200</v>
       </c>
       <c r="C2">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -642,7 +642,7 @@
         <v>300</v>
       </c>
       <c r="C3">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -665,7 +665,7 @@
         <v>400</v>
       </c>
       <c r="C4">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -688,7 +688,7 @@
         <v>600</v>
       </c>
       <c r="C5">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -711,7 +711,7 @@
         <v>800</v>
       </c>
       <c r="C6">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D6">
         <v>14</v>
@@ -731,10 +731,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="C7">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -754,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C8">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D8">
         <v>17</v>
@@ -777,10 +777,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="C9">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="D9">
         <v>19</v>
@@ -800,10 +800,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="C10">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -823,10 +823,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="C11">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="D11">
         <v>23</v>
@@ -846,10 +846,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="C12">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="D12">
         <v>25</v>
@@ -869,10 +869,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="C13">
-        <v>40000</v>
+        <v>85000</v>
       </c>
       <c r="D13">
         <v>27</v>
@@ -892,10 +892,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="C14">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="D14">
         <v>30</v>
@@ -915,10 +915,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="C15">
-        <v>40000</v>
+        <v>95000</v>
       </c>
       <c r="D15">
         <v>33</v>
@@ -938,10 +938,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="C16">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="D16">
         <v>36</v>
@@ -961,10 +961,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="C17">
-        <v>40000</v>
+        <v>105000</v>
       </c>
       <c r="D17">
         <v>39</v>
@@ -984,10 +984,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="C18">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="D18">
         <v>42</v>
@@ -1007,10 +1007,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="C19">
-        <v>40000</v>
+        <v>115000</v>
       </c>
       <c r="D19">
         <v>45</v>
@@ -1030,10 +1030,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="C20">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="D20">
         <v>48</v>
@@ -1053,10 +1053,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="C21">
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="D21">
         <v>51</v>
@@ -1076,10 +1076,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="C22">
-        <v>50000</v>
+        <v>130000</v>
       </c>
       <c r="D22">
         <v>54</v>
@@ -1099,10 +1099,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="C23">
-        <v>50000</v>
+        <v>135000</v>
       </c>
       <c r="D23">
         <v>57</v>
@@ -1122,10 +1122,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="C24">
-        <v>50000</v>
+        <v>140000</v>
       </c>
       <c r="D24">
         <v>60</v>
@@ -1145,10 +1145,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>140000</v>
+        <v>160000</v>
       </c>
       <c r="C25">
-        <v>50000</v>
+        <v>145000</v>
       </c>
       <c r="D25">
         <v>63</v>
@@ -1168,10 +1168,10 @@
         <v>25</v>
       </c>
       <c r="B26">
+        <v>170000</v>
+      </c>
+      <c r="C26">
         <v>150000</v>
-      </c>
-      <c r="C26">
-        <v>50000</v>
       </c>
       <c r="D26">
         <v>66</v>
@@ -1191,10 +1191,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="C27">
-        <v>50000</v>
+        <v>155000</v>
       </c>
       <c r="D27">
         <v>69</v>
@@ -1214,10 +1214,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="C28">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="D28">
         <v>72</v>
@@ -1237,10 +1237,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="C29">
-        <v>50000</v>
+        <v>165000</v>
       </c>
       <c r="D29">
         <v>75</v>
@@ -1260,10 +1260,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="C30">
-        <v>50000</v>
+        <v>170000</v>
       </c>
       <c r="D30">
         <v>78</v>
@@ -1283,10 +1283,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="C31">
-        <v>50000</v>
+        <v>175000</v>
       </c>
       <c r="D31">
         <v>81</v>
